--- a/pred_ohlcv/54_21/2020-01-25 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-21.88998994708996</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9.941910052910043</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-0.8515899470899573</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>74.77331005291003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>74.76901005291003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>78.14881005291002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>85.85951005291003</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>86.19628674782527</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>81.42888674782527</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>82.08478674782528</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>87.65117657833375</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>89.52527657833375</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>15.52937657833375</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12.36367657833375</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>15.73777657833375</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>15.73777657833375</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>15.78777657833375</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>15.78777657833375</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>13.31027657833375</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>94.31337657833375</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>98.3664833228903</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>115.4584833228903</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>117.2299833228903</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>118.3636833228903</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>138.6081833228903</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>144.1288833228903</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>187.1950833228903</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>180.1122833228903</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>180.11758522967</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>179.18908522967</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>168.73298522967</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>169.38658522967</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>175.92148522967</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>160.14798522967</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>155.80098522967</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>156.17018522967</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>146.17018522967</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>145.14258522967</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>127.04118522967</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>126.93628522967</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>128.49878522967</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>68.29848522967001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>38.18228522967001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>83.69048522967</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>248.47198522967</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>143.40228522967</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>192.40228522967</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>182.22568522967</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>269.2284919282346</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>275.8834919282345</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>233.6736919282345</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>305.2926919282345</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>305.2926919282345</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>292.5576919282345</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-597.8649493365036</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-619.0456493365036</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-670.3187493365036</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-459.6292493365036</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-444.7400493365036</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-441.7911493365036</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-446.8761493365036</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-354.7887493365036</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-344.1514493365036</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-332.1821493365036</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-326.3044493365036</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-322.0099493365036</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-333.8446493365036</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-333.6464493365036</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-336.9474493365036</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-274.7402493365036</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-276.9571493365036</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-278.1871493365036</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-449.9079493365036</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-472.4710493365037</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-588.8268741885702</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-677.1483741885701</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-677.7281741885701</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-746.60467418857</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-687.27317418857</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-684.69027418857</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-685.78547418857</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-661.9725345161191</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-639.3193345161192</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-597.3141345161191</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-615.4589345161191</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-619.4991345161192</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-617.2059345161192</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-620.9323345161192</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-620.4302345161192</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-630.0720345161192</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-618.4410842515689</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-618.1964842515689</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-610.1651842515689</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-610.1683842515689</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-592.8799842515689</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-597.7304842515689</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-679.792284251569</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-725.615484251569</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-782.841384251569</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3315.155454044835</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3323.888354044835</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3323.662654044835</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3303.506854044835</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3259.714354044835</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3311.003054044835</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2911.882169589874</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2937.988169589874</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2948.576369589875</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-3004.548569589875</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-3071.140969589875</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-3003.484731397298</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-3051.343931397298</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2858.210631397298</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2976.792331397298</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2369.081231397298</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2573.910431397298</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-2553.244963275957</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-21.88998994708996</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9.941910052910043</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-0.8515899470899573</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>74.77331005291003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>74.76901005291003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>78.14881005291002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>86.19628674782527</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>81.42888674782527</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>180.1122833228903</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>180.11758522967</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>179.18908522967</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-610.9323493365035</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-610.2469493365036</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-609.9899493365036</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-597.8649493365036</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-619.0456493365036</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-670.3187493365036</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-459.6292493365036</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-444.7400493365036</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-441.7911493365036</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-446.8761493365036</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-354.7887493365036</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-344.1514493365036</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-332.1821493365036</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-326.3044493365036</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-322.0099493365036</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-333.8446493365036</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-333.6464493365036</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-336.9474493365036</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-274.7402493365036</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-276.9571493365036</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-278.1871493365036</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-449.9079493365036</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-472.4710493365037</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-528.0738857578906</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-529.5513857578906</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-616.1848857578906</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-616.1848857578906</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-588.8268741885702</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-677.1483741885701</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-677.4683741885701</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-746.60467418857</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-684.69027418857</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-685.78547418857</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-661.9725345161191</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-639.3193345161192</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-597.3141345161191</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-615.4589345161191</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-619.4991345161192</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-617.2059345161192</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-620.9323345161192</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-620.4302345161192</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-630.0720345161192</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-618.4410842515689</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-618.1964842515689</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-610.1651842515689</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-610.1683842515689</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-592.8799842515689</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-597.7304842515689</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-679.792284251569</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3315.155454044835</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3323.888354044835</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3323.662654044835</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3303.506854044835</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3259.714354044835</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-3359.027178088551</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-3343.350078088551</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-3225.762278088551</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2911.882169589874</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2937.988169589874</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2948.576369589875</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-3004.548569589875</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-3071.140969589875</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-3003.484731397298</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-3051.343931397298</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2858.210631397298</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2976.792331397298</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2369.081231397298</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2573.910431397298</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-2553.244963275957</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
